--- a/BillData.xlsx
+++ b/BillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathan\Documents\UiPath\BillPaymentReminderBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E7FE53-6D6D-4391-A93C-195A8BE797D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B615C0-91CC-4C5A-A3BB-19B18B3D4F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3828" yWindow="3540" windowWidth="17280" windowHeight="9420" xr2:uid="{11C68575-2A01-4882-9903-72CD6EBA0230}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{11C68575-2A01-4882-9903-72CD6EBA0230}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,30 +75,6 @@
     <t>Tholkappiyan</t>
   </si>
   <si>
-    <t>muthukumar26022005@gmail.com</t>
-  </si>
-  <si>
-    <t>naren2004dn@gmail.com</t>
-  </si>
-  <si>
-    <t>vishalmanickasundaram@gmail.com</t>
-  </si>
-  <si>
-    <t>harrishdevaraj@gmail.com</t>
-  </si>
-  <si>
-    <t>tholkappiyan0628@gmail.com</t>
-  </si>
-  <si>
-    <t>umadeva29@gmail.com</t>
-  </si>
-  <si>
-    <t>san.rmsb@gmail.com</t>
-  </si>
-  <si>
-    <t>manojrao200431@gmail.com</t>
-  </si>
-  <si>
     <t>Electricity</t>
   </si>
   <si>
@@ -118,6 +94,30 @@
   </si>
   <si>
     <t>Not Sent</t>
+  </si>
+  <si>
+    <t>muthuramesh26@gmail.com</t>
+  </si>
+  <si>
+    <t>naren005@gmail.com</t>
+  </si>
+  <si>
+    <t>manojpushparaj29@gmail.com</t>
+  </si>
+  <si>
+    <t>santh.ramjanu.@gmail.com</t>
+  </si>
+  <si>
+    <t>vishaldjreo4012@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajpurusan2631@gmail.com</t>
+  </si>
+  <si>
+    <t>harrdevika2514@gmail.com</t>
+  </si>
+  <si>
+    <t>tholsramakrishnian32@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -538,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3">
         <v>45815</v>
@@ -547,10 +547,10 @@
         <v>1200</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3">
         <v>45816</v>
@@ -567,10 +567,10 @@
         <v>950</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
         <v>45817</v>
@@ -587,10 +587,10 @@
         <v>2300</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -598,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>45818</v>
@@ -607,10 +607,10 @@
         <v>1700</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -618,7 +618,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3">
         <v>45819</v>
@@ -627,10 +627,10 @@
         <v>3000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -638,7 +638,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
         <v>45820</v>
@@ -647,10 +647,10 @@
         <v>800</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3">
         <v>45821</v>
@@ -667,10 +667,10 @@
         <v>2600</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -678,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3">
         <v>45822</v>
@@ -687,10 +687,10 @@
         <v>1100</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
